--- a/src/test/resources/navya.xlsx
+++ b/src/test/resources/navya.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="15300" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="19770" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>first</t>
   </si>
@@ -41,6 +42,21 @@
   </si>
   <si>
     <t>navyashetty@gmail.com</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
   </si>
 </sst>
 </file>
@@ -87,9 +103,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,14 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
@@ -431,11 +449,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
 
